--- a/pred_ohlcv/54_21/2020-01-19 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 QTUM ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>190087.7128855</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>175732.20637641</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>190398.76867641</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>244163.4895412</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>290111.8784720399</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>255499.3964378599</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>255499.3964378599</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>235673.43525247</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>245771.39559329</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>237039.4349957</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>225035.7935957</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>220303.1487957</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>187620.8673957</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>189392.98147762</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>184978.31797762</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>179499.9678404</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>177536.0493404</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>186883.7398404</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>181332.3438404</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>184916.7952404</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>180742.8425404</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>187602.2254404</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>179067.9320404</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>179067.9320404</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-50928.21411353986</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-42065.72571353986</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-38157.31377512987</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-37341.86027512987</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-42309.01370359987</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-42309.01370359987</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-32638.83118995988</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-30096.98774735988</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-112169.7949963599</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-109395.7289963599</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-109395.7289963599</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H965">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H966">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H967">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-107945.0728519099</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-107945.0728519099</v>
       </c>
       <c r="H969">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-106336.9480519099</v>
       </c>
       <c r="H970">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-106418.2810519099</v>
       </c>
       <c r="H971">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-106418.2810519099</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-108386.7575519099</v>
       </c>
       <c r="H973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-107387.9518519099</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-108302.0653519099</v>
       </c>
       <c r="H979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-108701.7983519099</v>
       </c>
       <c r="H980">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-108551.5764519099</v>
       </c>
       <c r="H981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-108551.5764519099</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-108774.9094519099</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-110063.6443519099</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-110063.6443519099</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-112981.8018519099</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-112917.4377519099</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-112675.0486519099</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-80139.95470085987</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-81247.86791073988</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-81488.41791073987</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-82043.55751073988</v>
       </c>
       <c r="H1042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-80221.74551073989</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-80334.04551073989</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-77506.22401073988</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-80130.99281073989</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-84175.2249107399</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-83314.9006107399</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 QTUM ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>190087.7128855</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>175732.20637641</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>190398.76867641</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>244163.4895412</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>255499.3964378599</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>255499.3964378599</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>235673.43525247</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>245771.39559329</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>237039.4349957</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>225035.7935957</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>220303.1487957</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>187620.8673957</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>186200.1029957</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>187301.74997762</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>185610.34917762</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>181332.3438404</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>184916.7952404</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>180742.8425404</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>187602.2254404</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>179067.9320404</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>179067.9320404</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-54646.15194622986</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-50928.21411353986</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-42065.72571353986</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-38157.31377512987</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-37341.86027512987</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-42309.01370359987</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-42309.01370359987</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-44924.26734677987</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-32638.83118995988</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-108455.7087963599</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-108455.7087963599</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-109395.7289963599</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-107945.0728519099</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-107945.0728519099</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-106336.9480519099</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-106418.2810519099</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-106418.2810519099</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-108386.7575519099</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-107386.7575519099</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-107387.9518519099</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-107387.9518519099</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-107387.9518519099</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-108332.7029519099</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-108302.0653519099</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-108701.7983519099</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-108551.5764519099</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-108551.5764519099</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-108774.9094519099</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-110063.6443519099</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-110063.6443519099</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-110060.8063519099</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-111315.9939519099</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-112981.8018519099</v>
       </c>
       <c r="H988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-112917.4377519099</v>
       </c>
       <c r="H989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-112675.0486519099</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-80276.01470085987</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-80139.95470085987</v>
       </c>
       <c r="H1034">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-81247.86791073988</v>
       </c>
       <c r="H1035">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-80336.46301073988</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-80411.52511073988</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-80334.04551073989</v>
       </c>
       <c r="H1049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-77506.22401073988</v>
       </c>
       <c r="H1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-80130.99281073989</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-80234.54701073989</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-80429.52891073989</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-84175.2249107399</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-83314.9006107399</v>
       </c>
       <c r="H1075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
